--- a/ACS.xlsx
+++ b/ACS.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Пром ПК" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C388"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -382,11 +382,16 @@
           <t>Количество</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Тип оборудования</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>XP-9781-IoT CR</t>
+          <t>ECN-360A-ULT3-i5/4G</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -396,14 +401,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>I-7188EX CR</t>
+          <t>uIBX-250-BW-N3/2G</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -413,31 +423,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>I-7188E2 CR</t>
+          <t>DRPC-130-AL-E1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>I-7188EG CR</t>
+          <t>ITG-100-AL-E1/S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -448,30 +468,40 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>I-7188E3 CR</t>
+          <t>DRPC-230-ULT5-i5/8G/S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>I-7188E3-232 CR</t>
+          <t>ECN-360A-ULT3-C/4G</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -481,48 +511,63 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>I-7188E2D-MTCP CR</t>
+          <t>DRPC-230-ULT5-CE/8G/S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>M2M-711D CR</t>
+          <t>DS-1202</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>uPAC-5201 CR</t>
+          <t>UC-8112-LX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -533,13 +578,18 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>WP-8441-EN CR</t>
+          <t>P2002E-i5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -549,48 +599,63 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>WP-8841-EN</t>
+          <t>DS-1100</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>WP-8447-EN</t>
+          <t>DS-1200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>WP-8847-EN</t>
+          <t>DC-1200-N42</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -600,14 +665,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>WP-8837-EN</t>
+          <t>UC-8410A-LX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -617,31 +687,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>WP-8437-EN</t>
+          <t>DA-1000-E45</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>XP-8331-CE6 CR</t>
+          <t>UC-8410A-T-LX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -651,14 +731,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>LP-8841-EN CR</t>
+          <t>P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -668,48 +753,63 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>WISE-5231 CR</t>
+          <t>P2002-i5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ET-7017 CR</t>
+          <t>P2102-i5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>PET-7051 CR</t>
+          <t>P2102E-i3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -719,14 +819,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PET-7060 CR</t>
+          <t>P2102-i3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -736,65 +841,85 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ET-7053 CR</t>
+          <t>P2102E-i5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2210</t>
+          <t>P1001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2210</t>
+          <t>P1001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ioLogik R1210</t>
+          <t>P1101-N42</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -805,30 +930,40 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>10+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ioLogik R1210</t>
+          <t>IPC932-230-FL-HAB100-DC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1212</t>
+          <t>IRS-100-ULT3-i5/4G</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -838,65 +973,85 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1212</t>
+          <t>DI-1000-i3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>10+</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2214</t>
+          <t>DA-1000-J19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>10+</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2214</t>
+          <t xml:space="preserve">DI-1000-i5 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1240</t>
+          <t>ARK-3500F-00A1E</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -907,47 +1062,62 @@
       <c r="C32" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2240</t>
+          <t>DX-1000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2240</t>
+          <t>ARK-2121F-U0A2E</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1211</t>
+          <t>DS-1001</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,14 +1127,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1214</t>
+          <t>P1001E</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -974,48 +1149,63 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1214</t>
+          <t>DE-1002</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1214</t>
+          <t>P2002E-i5-PI</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Товары в пути</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2210-T</t>
+          <t>IBX-660-8G</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1025,31 +1215,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E2210-T</t>
+          <t>UC-2112-T-LX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1260</t>
+          <t>UC-5101-LX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1059,31 +1259,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1260</t>
+          <t>UC-5102-LX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1210-T</t>
+          <t>eBOX800-841-FL-DC</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1094,13 +1304,18 @@
       <c r="C43" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1241</t>
+          <t>ICO300-E3815-PB-DC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1111,13 +1326,18 @@
       <c r="C44" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1242</t>
+          <t>UST500-517-FL-8RJ8M12-4SATA-DC</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1127,14 +1347,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>M-7051D-G CR</t>
+          <t>IPC962-511-DC-FL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1144,31 +1369,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>M-7051D-G CR</t>
+          <t>DS-1201</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Товары в пути</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>I-7041 CR</t>
+          <t>W406-LX</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1178,14 +1413,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>ioLogik R1240</t>
+          <t>eBOX800-511-FL-DC-3965U</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1195,31 +1435,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>ioLogik R1240</t>
+          <t>TANK-620-ULT3-CE/4G</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Товары в пути</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>I-87041W-G CR</t>
+          <t>DA-1100-N42</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1229,65 +1479,85 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>I-87041W-G CR</t>
+          <t>DA-1100-N33</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>I-7017 CR</t>
+          <t>rBOX630-8E-FL-DC</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>I-7015 CR</t>
+          <t>DX-1100</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>ET-7051 CR</t>
+          <t>EBOX800-900-FL-NP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1297,31 +1567,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>I-7050 CR</t>
+          <t>eBOX671-521-FL-DC-4PoE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>I-8050W-G CR</t>
+          <t>eBOX100-51R-DC-3965U</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1331,31 +1611,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>M-7017RC-G CR</t>
+          <t>eBOX671-521-FL-DC-6GbE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>I-8040W-G CR</t>
+          <t>UC-8220-T-LX-EU-S</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1365,31 +1655,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>I-87053-G CR</t>
+          <t>AIE500-901-FL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ET-7067</t>
+          <t>ICO120-83D-N3350-COM-DIO-DC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1399,14 +1699,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>ET-7202 CR</t>
+          <t>eBOX560-512-FL-DC-7100U</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1416,14 +1721,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>ET-7215 CR</t>
+          <t>AIE100-903-FL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1433,14 +1743,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>ET-7217 CR</t>
+          <t>AIE100-903-FL-NX</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1450,82 +1765,107 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>ET-7226 CR</t>
+          <t>AIE100-903-FL-NX</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>ET-7242 CR</t>
+          <t>IPC962-525-N-DC-Q370</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>ET-7251 CR</t>
+          <t>eBOX630-528-FL-8365UE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>ET-7260 CR</t>
+          <t>eBOX630-528-FL-8145UE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>I-9053P</t>
+          <t>AIE800-904-FL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1536,13 +1876,18 @@
       <c r="C69" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>I-97028U CR</t>
+          <t>GP-3000</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1553,81 +1898,106 @@
       <c r="C70" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>M-7041D-G CR</t>
+          <t>DS-1300</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>M-7018-G CR</t>
+          <t>DS-1301</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>M-7017C-G CR</t>
+          <t>DS-1302</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>M-7041-G CR</t>
+          <t>rBOX510-6COM-FL-DC-E3845</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>M-7019R-G CR</t>
+          <t>P2002-i3</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1637,14 +2007,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>M-7015-G CR</t>
+          <t>ARK-3500P-00A1E</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1654,14 +2029,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>M-7024-G CR</t>
+          <t>ECN-360A-ULT3-CE/4G</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1671,14 +2051,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>M-7055D-G CR</t>
+          <t>ICO100-839-N3350-2COM-DIO-DC</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1688,31 +2073,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>M-7017-G CR</t>
+          <t>eBOX640-521-FL-DC</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>M-7052D-G CR</t>
+          <t>eBOX560-52R-FL-DC-8365UE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1722,31 +2117,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>M-7067-G CR</t>
+          <t xml:space="preserve">AIE900-902-FL </t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NNZ_CONTROLLERS</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>M-7022-G CR</t>
+          <t>PPC-F19B-BTi-J1/2G/R</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1756,48 +2161,63 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>M-7015P-G CR</t>
+          <t>AFL3-W07A-AL-N1/P/PC/4G</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>M-7017Z-G CR</t>
+          <t>AFL3-W10A-AL-J2/P/PC/4G</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>M-7052-G CR</t>
+          <t>AFL3-12A-AL-J2/P/PC/4G</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1807,31 +2227,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>M-7065D-G CR</t>
+          <t>AFL3-12A-AL-J2/P/PC/4G</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>M-7058D CR</t>
+          <t>AFL3-W19C-ULT5-i5/P/PC/4G</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1841,14 +2271,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>M-7061D-G CR</t>
+          <t>CV-W115C/P2002E-i5</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1858,14 +2293,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>M-7069 CR</t>
+          <t>CV-W115C/P2002E-i5-PI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1876,13 +2316,18 @@
       <c r="C89" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>I-7018 CR</t>
+          <t>CV-W115R/P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1892,14 +2337,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>I-7012 CR</t>
+          <t>CV-W115R/P2002E-i5-PI</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1909,14 +2359,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>I-7013 CR</t>
+          <t>CV-119C/P2002E-i5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1926,14 +2381,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>I-7080D CR</t>
+          <t>PPC-F15AA-H81i-i5/4G/PC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1943,14 +2403,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>I-7017F CR</t>
+          <t>P1197E-500-US w/PCIe x4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1960,14 +2425,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>I-7018P CR</t>
+          <t>AFL3-W19C-ULT3-i5/PC/4G</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1977,14 +2447,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>I-7052D CR</t>
+          <t>PPC-F17AA-H81i-i5/4G/R</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1994,31 +2469,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>I-7052D CR</t>
+          <t>PPC-F15AA-H81i-i5/4G/R</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>I-7041D CR</t>
+          <t>CV-W115R/P2002E-i5</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2029,30 +2514,40 @@
       <c r="C98" t="inlineStr">
         <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>I-7042D CR</t>
+          <t>CV-W115C/P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>I-7043D CR</t>
+          <t>CV-117R/P2002E-i5</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2062,14 +2557,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>I-7065 CR</t>
+          <t>CV-117R/P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2080,13 +2580,18 @@
       <c r="C101" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>I-7065D CR</t>
+          <t>CV-117R/P2002E-i5-PI</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2096,14 +2601,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>I-7053D_FG CR</t>
+          <t>CV-119R/P2002E-i5</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2113,14 +2623,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>I-7033 CR</t>
+          <t>CV-119R/P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2130,14 +2645,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>I-7063 CR</t>
+          <t>CV-119R/P2002E-i5-PI</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2147,14 +2667,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>I-7063A CR</t>
+          <t>CV-119C/P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2164,14 +2689,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>I-7017C CR</t>
+          <t>CV-119C/P2002E-i5-PI</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2181,31 +2711,41 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>I-7017C CR</t>
+          <t>CV-108R/P1001E</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>I-7017RC</t>
+          <t>CV-110C/P1001E</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2216,13 +2756,18 @@
       <c r="C109" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>I-7019R CR</t>
+          <t>CV-W115R/P1001E</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2232,14 +2777,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>I-7051 CR</t>
+          <t>CV-W115C/P1001E</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2249,14 +2799,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>I-7045 CR</t>
+          <t>CV-117R/P1001E</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2267,13 +2822,18 @@
       <c r="C112" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>I-7045D CR</t>
+          <t>CV-119R/P1001E</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2283,14 +2843,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>I-7055D CR</t>
+          <t>CV-119C/P1001E</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2300,14 +2865,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>M-1450</t>
+          <t>GOT610-837-R</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2318,30 +2888,40 @@
       <c r="C115" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>M-2601</t>
+          <t>GOT610-837-R</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>I-87015W-G CR</t>
+          <t>P1157E-500-US w/PCIe x4</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2351,14 +2931,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>I-7017FC CR</t>
+          <t>GOT5120T-834 J-XGA-US</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2368,14 +2953,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>I-7018R CR</t>
+          <t>CV-110C/P1101-N42</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2385,14 +2975,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>I-87013W-G CR</t>
+          <t>CV-117R/P1101-N42</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2402,14 +2997,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>I-87017 CR</t>
+          <t>CV-119C/P1101-N42</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2419,14 +3019,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>I-8017H CR</t>
+          <t>CV-W115C/P1101-N42</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2437,13 +3042,18 @@
       <c r="C122" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>I-87024-G CR</t>
+          <t>CV-W124C/P2002E-i5-E4</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2454,13 +3064,18 @@
       <c r="C123" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>I-8024-G CR</t>
+          <t>CV-W124C/P1101-N42</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2471,13 +3086,18 @@
       <c r="C124" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>I-87064-G CR</t>
+          <t>P1127E-500-US wPCI</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2488,47 +3108,62 @@
       <c r="C125" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>I-87065-G CR</t>
+          <t>CV-W124R/P1101-N42</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>I-8040-G CR</t>
+          <t>AFL3-W15A-AL-J2/P/PC/4G</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>I-8050-G CR</t>
+          <t>CV-W115R/P2002-i3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2538,14 +3173,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>I-8054-G CR</t>
+          <t xml:space="preserve">PPC-F22AA-H81-i3/4G/P-R13-UTG </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2555,14 +3195,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>I-8057-G CR</t>
+          <t>CV-119C/P2002-i7</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2572,14 +3217,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>I-8058-G CR</t>
+          <t>R17IV7T-PMM1PS/i5</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2589,14 +3239,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>ET-7050 CR</t>
+          <t>PDX-057T-RD8A-512-I</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2606,14 +3261,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>I-87053W-G CR</t>
+          <t>PDX-057T-RD8A-512-I</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2623,14 +3283,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>I-87015PW-G CR</t>
+          <t>GOT3187W-881-PCT-NP</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2640,14 +3305,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>I-7017Z-G CR</t>
+          <t>ITC080WM</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2657,48 +3327,63 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>ET-7044 CR</t>
+          <t>GOT315W-521-PCT-DC</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>NNZ_MODULES</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>ET-7052 CR</t>
+          <t>DA-685-XPE</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>NNZ_DAQ_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>I-7015P-G CR</t>
+          <t>DA-660-8-LX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2708,14 +3393,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>NNZ_DAQ_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>I-8037W-G CR</t>
+          <t>FLEX-BX200-Q370/25</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2725,14 +3415,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>NNZ_DAQ_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>I-8041W-G CR</t>
+          <t>IMBA-Q870-ECO</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2742,48 +3437,63 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>I-8054W-G CR</t>
+          <t>PCIE-H810</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>I-8064W-G CR</t>
+          <t>IMBA-H110</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>I-87018W-G CR</t>
+          <t>PCIE-Q170</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2793,14 +3503,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>I-87052W</t>
+          <t>IMB-H810-i2</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2810,14 +3525,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>I-87063W-G CR</t>
+          <t>PCIE-Q870-i2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2827,31 +3547,41 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>I-87064W-G CR</t>
+          <t>PCIE-Q870-i2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>I-87082W-G CR</t>
+          <t>IMBA-H810</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2861,48 +3591,63 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>I-8053W-G CR</t>
+          <t>IMBA-H810</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>10+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>I-8058W-G CR</t>
+          <t>IMBA-Q170-i2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>ET-7017-10 CR</t>
+          <t>IMB-H110</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2912,14 +3657,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>I-8024W-G CR</t>
+          <t>IMB-H110</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2929,48 +3679,63 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>I-8040PW-G CR</t>
+          <t>IMBA-Q370</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>I-8052W-G CR</t>
+          <t>PCIE-Q370</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>I-8053PW-G CR</t>
+          <t>NANO-ULT5-i7</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2980,99 +3745,129 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>ET-7026 CR</t>
+          <t>NANO-ULT5-i7</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>ET-7026 CR</t>
+          <t>NANO-ULT5-i5</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>I-87053PW-G CR</t>
+          <t>NANO-ULT5-i5</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>I-8063W-G CR</t>
+          <t>NANO-ULT5-i3</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>ET-7015 CR</t>
+          <t>NANO-ULT5-C</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>I-8055W-G CR</t>
+          <t>WAFER-ULT5-CE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3082,14 +3877,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>I-8060W-G CR</t>
+          <t>WAFER-ULT5-i7</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3099,31 +3899,41 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>PET-7067 CR</t>
+          <t>WAFER-ULT5-i3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>I-87061W-G CR</t>
+          <t>IMBA-H112</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3133,48 +3943,63 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>PET-7015</t>
+          <t>IMBA-H112</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>PET-7018Z/S CR</t>
+          <t>gKINO-V1202B</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>I-7061D CR</t>
+          <t>IMBA-H310</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3184,31 +4009,41 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>PET-7026 CR</t>
+          <t>IMBA-H310</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1212-T</t>
+          <t>NANO-HM650</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3218,14 +4053,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>ET-7002 CR</t>
+          <t>WAFER-ULT2-i1-C</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3235,14 +4075,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>I-87057PW-G CR</t>
+          <t>IMB211VGGA</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3252,48 +4097,63 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>ET-7016 CR</t>
+          <t>CAPA500VHGGA-Q170-ZIO</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>PET-7053 CR</t>
+          <t>WSB-H810</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>I-87037W-G CR</t>
+          <t>WAFER-ULT3-i3</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3303,31 +4163,41 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>ioLogik R1214</t>
+          <t>EM-1240-LX</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>ioLogik R1241</t>
+          <t>SBC81210VGG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3337,14 +4207,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>I-87028UW-G CR</t>
+          <t>SHB120VGGA</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3354,31 +4229,41 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>I-87024UW-G CR</t>
+          <t>SHB120VGGA</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1213</t>
+          <t>KINO-AQ870</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3388,31 +4273,41 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>ioLogik E1213</t>
+          <t>HYPER-BT-J19001</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>PET-7050 CR</t>
+          <t>IMBA-BDE-D1518</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3423,30 +4318,40 @@
       <c r="C180" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>X511</t>
+          <t>IMB501VHGGA</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>X107 CR</t>
+          <t>KINO-AQ170</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3456,82 +4361,107 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>X301</t>
+          <t>WAFER-BW-N4</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>X504 CR</t>
+          <t>AIMB-216D-S6A2E</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>X505 CR</t>
+          <t>IMB502VHGGA</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>X608</t>
+          <t>ASMB-935I-00A1</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>ET-7024 CR</t>
+          <t>ASMB-586G4-00A1</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3541,14 +4471,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>PET-7217-10 CR</t>
+          <t>PICO316HGA-N4200 60°C</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3559,13 +4494,18 @@
       <c r="C188" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>M-7043D CR</t>
+          <t>PICO51RPGG-i7-7600U w/Fan</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3575,14 +4515,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>I-8430</t>
+          <t>MANO521PHGGA-H310</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3593,13 +4538,18 @@
       <c r="C190" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>M-1401</t>
+          <t>ASMB-786G2-00A1</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3609,14 +4559,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>M-2401</t>
+          <t>CAPA315HGGA-N4200</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3627,13 +4582,18 @@
       <c r="C192" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>M-4201</t>
+          <t>IMB525VDHGGA-C246 GIFT BOX</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3643,14 +4603,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>M-7803</t>
+          <t>IMB520VDHGGA-Q370 GIFT BOX</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3660,31 +4625,41 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>M-7806</t>
+          <t>IMB520VDHGGA-Q370 GIFT BOX</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Москва</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>I-87019R</t>
+          <t>PCA-6763VG-S0A1E</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3695,13 +4670,18 @@
       <c r="C196" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>I-8053 CR</t>
+          <t>SHB150RDGG-H310 w/PCIex4 BIOS</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3711,14 +4691,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>I-8040 CR</t>
+          <t>IMB523RVDHGGA-Q370 GIFT BOX</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3728,14 +4713,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>I-87024 CR</t>
+          <t>IMB524RVDHGGA-H310 GIFT BOX</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3745,31 +4735,41 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>ET-2254</t>
+          <t>IMB524RVDHGGA-H310 GIFT BOX</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>tPET-P2R2 CR</t>
+          <t>IMB525RVDHGGA-C246 GIFT BOX</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3779,14 +4779,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>tET-P6 CR</t>
+          <t>IMB521RVDHGGA-C246</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3796,31 +4801,41 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>tPET-P6</t>
+          <t xml:space="preserve">MANO521PHGGA-Q370 </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>tPET-PD6 CR</t>
+          <t>IMB530-S:ATX board,10th Gen,W480E</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3831,13 +4846,18 @@
       <c r="C204" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>tPET-PD2R1 CR</t>
+          <t>PICO316HGA-N3350 60°C</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3847,14 +4867,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>ET-2251</t>
+          <t>IMB521RVDHGGA-C246 BULK PACKING</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3864,14 +4889,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>ET-2255</t>
+          <t>IMB502VHGGA</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3881,82 +4911,107 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>ET-7250A CR</t>
+          <t>IMBA-Q470</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>45MR-1600</t>
+          <t>uATX-H410A</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>ioThinx 4510</t>
+          <t>uATX-Q370A</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>ioThinx 4510</t>
+          <t>uATX-H110A</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>ioThinx 4510</t>
+          <t>tKINO-ULT6-i7</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3966,14 +5021,19 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>45MR-2600</t>
+          <t>VDX-6356RD-X</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3983,14 +5043,19 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>45MR-3800</t>
+          <t>IMB520VDHGGA-Q370 BULK PACKING</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4000,31 +5065,41 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>45MR-3800</t>
+          <t>MMB501VHGGA BULK PACKING</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>NNZ_SPEC_MODELS</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>I-87053 CR</t>
+          <t>PCI-6S</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4034,31 +5109,41 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>tM-DA1P1R1</t>
+          <t>PCI-10S</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Товары в пути</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>tM-P8 CR</t>
+          <t>PCI-8S</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4068,14 +5153,19 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>GW-5492</t>
+          <t>PCI-13SD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4085,14 +5175,19 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>GW-5493</t>
+          <t>PXE-13S</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4102,14 +5197,19 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>tM-SG4 CR</t>
+          <t>PE-7S</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4119,14 +5219,19 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>tM-AD4P2C2 CR</t>
+          <t>PCI-5SD6</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4136,14 +5241,19 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>10+</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>tM-AD2</t>
+          <t>PCI-5SDA</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4153,31 +5263,41 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>M-7064D</t>
+          <t>PCI-2SD2</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>I-8057 CR</t>
+          <t>PCI-14S3</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4187,14 +5307,19 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2060</t>
+          <t>PE-6SD3</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4205,13 +5330,18 @@
       <c r="C226" t="inlineStr">
         <is>
           <t>10</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2050</t>
+          <t>PCI-7S</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4221,14 +5351,19 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2053 CR</t>
+          <t>PE-10S2</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4238,48 +5373,63 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>CAN-2024C CR</t>
+          <t>PE-10S2</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>CAN-2017C CR</t>
+          <t>PX-14S3</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2028 CR</t>
+          <t>BP-6S-RS</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4289,14 +5439,19 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2061 CR</t>
+          <t>BP-8S-RS</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4306,31 +5461,41 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2094S</t>
+          <t>PX-10S</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Товары в пути</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2610 CR</t>
+          <t>PE-10S</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4340,14 +5505,19 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2091S</t>
+          <t>PE-6S2</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4357,14 +5527,19 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>I-97017Z CR</t>
+          <t>PE-6SD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4374,14 +5549,19 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>MQ-7253M</t>
+          <t>PCI-14S</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4391,14 +5571,19 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2093</t>
+          <t>PCI-14S2</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4408,14 +5593,19 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>ET-7245</t>
+          <t>IP-5SA2</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4426,30 +5616,40 @@
       <c r="C239" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2611 CR</t>
+          <t>PE-4S</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Товары в пути</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>IR-210 CR</t>
+          <t>PE-7S2</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4459,14 +5659,19 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>45MR-4420</t>
+          <t>SPE-4S</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4476,14 +5681,19 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>ZT-2026 CR</t>
+          <t>PE-2SD2</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4493,31 +5703,41 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2610-DW CR</t>
+          <t>PCE-5B06-04A1E</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Товары в пути</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2092T CR</t>
+          <t>PCA-6114P4-0C2E</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4527,14 +5747,19 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10+</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2016N CR</t>
+          <t>PBP-18D4</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4544,14 +5769,19 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>ECAT-2012H CR</t>
+          <t>9893BE03000</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4561,2404 +5791,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="inlineStr">
-        <is>
-          <t>I-9037P CR</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="inlineStr">
-        <is>
-          <t>PISO-P32C32U CR</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="inlineStr">
-        <is>
-          <t>PCI-1002HU CR</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="inlineStr">
-        <is>
-          <t>A-821PGL CR</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="inlineStr">
-        <is>
-          <t>DIO-64/6 CR</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="inlineStr">
-        <is>
-          <t>P16R16DIO CR</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="inlineStr">
-        <is>
-          <t>PISO-P16R16U CR</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="inlineStr">
-        <is>
-          <t>PISO-725 CR</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="inlineStr">
-        <is>
-          <t>PISO-725 CR</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="inlineStr">
-        <is>
-          <t>PEX-D24 CR</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="inlineStr">
-        <is>
-          <t>ISO-DA16</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="inlineStr">
-        <is>
-          <t>ISO-AD32L</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="inlineStr">
-        <is>
-          <t>PISO-DA16U CR</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="inlineStr">
-        <is>
-          <t>PISO-DA8U/S CR</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="inlineStr">
-        <is>
-          <t>PCI-P16R16U CR</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="inlineStr">
-        <is>
-          <t>PISO-P8R8 CR</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="inlineStr">
-        <is>
-          <t>PCI-7300A</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="inlineStr">
-        <is>
-          <t>PISO-C64 CR</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="inlineStr">
-        <is>
-          <t>PIO-D24U CR</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="inlineStr">
-        <is>
-          <t>PIO-D144U CR</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="inlineStr">
-        <is>
-          <t>ECAT-M801-32AX/S</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="inlineStr">
-        <is>
-          <t>I-87K4-G CR</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="inlineStr">
-        <is>
-          <t>I-87K5-G CR</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="inlineStr">
-        <is>
-          <t>PROFI-8455-G CR</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="inlineStr">
-        <is>
-          <t>PROFI-8455-G CR</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="inlineStr">
-        <is>
-          <t>RU-87P8-G CR</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="inlineStr">
-        <is>
-          <t>SG-3016-G CR</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="inlineStr">
-        <is>
-          <t>I-8144iW-G CR</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="inlineStr">
-        <is>
-          <t>SG-3071-G CR</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="inlineStr">
-        <is>
-          <t>S512</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="inlineStr">
-        <is>
-          <t>I-8144 CR</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="inlineStr">
-        <is>
-          <t>I-8120W-G CR</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="inlineStr">
-        <is>
-          <t>W-8349-G</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="inlineStr">
-        <is>
-          <t>ADAM-3968/20-AE</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="inlineStr">
-        <is>
-          <t>I-9093 CR</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="inlineStr">
-        <is>
-          <t>PM-3033</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="inlineStr">
-        <is>
-          <t>PM-3112-100</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="inlineStr">
-        <is>
-          <t>PM-3133-100-MTCP</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="inlineStr">
-        <is>
-          <t>MDC-714 CR</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="inlineStr">
-        <is>
-          <t>4SIPP-801-CAG</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="inlineStr">
-        <is>
-          <t>I-9094F</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="inlineStr">
-        <is>
-          <t>RM-216 CR</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="inlineStr">
-        <is>
-          <t>RM-104 CR</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="inlineStr">
-        <is>
-          <t>RM-108 CR</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="inlineStr">
-        <is>
-          <t>DB-37 CR</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="inlineStr">
-        <is>
-          <t>DB-16P CR</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="inlineStr">
-        <is>
-          <t>DN-50 CR</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="inlineStr">
-        <is>
-          <t>DB-24C</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="inlineStr">
-        <is>
-          <t>DB-24C/D</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="inlineStr">
-        <is>
-          <t>DN-37-A CR</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="inlineStr">
-        <is>
-          <t>DN-37/2 CR</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="inlineStr">
-        <is>
-          <t>DN-8468UB CR</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="inlineStr">
-        <is>
-          <t>MT8070iE</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="inlineStr">
-        <is>
-          <t>MT8070iE</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
           <t>10</t>
         </is>
       </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="inlineStr">
-        <is>
-          <t>MT8070iE</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="inlineStr">
-        <is>
-          <t>MT8050iE</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="inlineStr">
-        <is>
-          <t>MT8050iE</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="inlineStr">
-        <is>
-          <t>MT8050iE</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="inlineStr">
-        <is>
-          <t>eMT3070B</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="inlineStr">
-        <is>
-          <t>eMT3070B</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="inlineStr">
-        <is>
-          <t>MT8071iE</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="inlineStr">
-        <is>
-          <t>MT8071iE</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="inlineStr">
-        <is>
-          <t>MT8101iE</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="inlineStr">
-        <is>
-          <t>MT8101iE</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="inlineStr">
-        <is>
-          <t>MT8150XE</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="inlineStr">
-        <is>
-          <t>MT8150XE</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="inlineStr">
-        <is>
-          <t>MT8070iER</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="inlineStr">
-        <is>
-          <t>MT8070iER</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="inlineStr">
-        <is>
-          <t>MT8092XE</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="inlineStr">
-        <is>
-          <t>MT8092XE</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="inlineStr">
-        <is>
-          <t>MT8092XE</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="inlineStr">
-        <is>
-          <t>MT8073iE</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="inlineStr">
-        <is>
-          <t>MT8102iP</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="inlineStr">
-        <is>
-          <t>MT8102iP</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="inlineStr">
-        <is>
-          <t>MT8102iE</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="inlineStr">
-        <is>
-          <t>MT8102iE</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="inlineStr">
-        <is>
-          <t>MT8102iE</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="inlineStr">
-        <is>
-          <t>MT8071iP</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="inlineStr">
-        <is>
-          <t>MT8090XE</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="inlineStr">
-        <is>
-          <t>MT8053iE</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="inlineStr">
-        <is>
-          <t>MT8053iE</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="inlineStr">
-        <is>
-          <t>MT8121XE3</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="inlineStr">
-        <is>
-          <t>MT8121XE3</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="inlineStr">
-        <is>
-          <t>MT8121XE3</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="inlineStr">
-        <is>
-          <t>cMT3162X</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="inlineStr">
-        <is>
-          <t>cMT3162X</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="inlineStr">
-        <is>
-          <t>cMT3162X</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="inlineStr">
-        <is>
-          <t>cMT3161X</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="inlineStr">
-        <is>
-          <t>cMT3161X</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="inlineStr">
-        <is>
-          <t>cMT3161X</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="inlineStr">
-        <is>
-          <t>cMT3152X</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="inlineStr">
-        <is>
-          <t>cMT3152X</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="inlineStr">
-        <is>
-          <t>cMT3092X</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="inlineStr">
-        <is>
-          <t>cMT3092X</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="inlineStr">
-        <is>
-          <t>cMT-G04</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="inlineStr">
-        <is>
-          <t>cMT-G03</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="inlineStr">
-        <is>
-          <t>cMT-G01</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="inlineStr">
-        <is>
-          <t>cMT-SVR-100</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="inlineStr">
-        <is>
-          <t>cMT-G02</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="inlineStr">
-        <is>
-          <t>cMT-iPC10-WES7</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="inlineStr">
-        <is>
-          <t>cMT-SVR-102</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="inlineStr">
-        <is>
-          <t>cMT-iV6</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="inlineStr">
-        <is>
-          <t>cMT-SVR-200</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="inlineStr">
-        <is>
-          <t>cMT-FHDX-220</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="inlineStr">
-        <is>
-          <t>cMT-FHDX-220</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>Товары в пути</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="inlineStr">
-        <is>
-          <t>cMT3072XH</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="inlineStr">
-        <is>
-          <t>cMT3072XH</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="inlineStr">
-        <is>
-          <t>cMT3072X</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="inlineStr">
-        <is>
-          <t>cMT3072X</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="inlineStr">
-        <is>
-          <t>cMT2078X</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="inlineStr">
-        <is>
-          <t>cMT2078X</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="inlineStr">
-        <is>
-          <t>cMT2108X</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>cMT2108X</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="inlineStr">
-        <is>
-          <t>cMT2158X</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="inlineStr">
-        <is>
-          <t>cMT2158X</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="inlineStr">
-        <is>
-          <t>cMT3102X</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="inlineStr">
-        <is>
-          <t>DL-10</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="inlineStr">
-        <is>
-          <t>iSN-101/S3 CR</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="inlineStr">
-        <is>
-          <t>LDP1602</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="inlineStr">
-        <is>
-          <t>RP0030700</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="inlineStr">
-        <is>
-          <t>RP0080900</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="inlineStr">
-        <is>
-          <t>RP0081210</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="inlineStr">
-        <is>
-          <t>RP0081500</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="inlineStr">
-        <is>
-          <t>PW-3090-12S-R CR</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="inlineStr">
-        <is>
-          <t>M-8004-PK</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="inlineStr">
-        <is>
-          <t>20P To 20P Flat Cable-500mm</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="inlineStr">
-        <is>
-          <t>RZCMT6100</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="inlineStr">
-        <is>
-          <t>RZC002320</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="inlineStr">
-        <is>
-          <t>EWB-T43</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="inlineStr">
-        <is>
-          <t>SoftNVR-25</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="inlineStr">
-        <is>
-          <t>EB-CC-PS-F1</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="inlineStr">
-        <is>
-          <t>EB-CC-CAT5-M1/(1300570003)</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="inlineStr">
-        <is>
-          <t>RP2005060</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="inlineStr">
-        <is>
-          <t>ACL-10537</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="inlineStr">
-        <is>
-          <t>ACL-10437</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>10+</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="inlineStr">
-        <is>
-          <t>ACL-10437</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="inlineStr">
-        <is>
-          <t>RFZ050600</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="inlineStr">
-        <is>
-          <t>RFZ810400</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="inlineStr">
-        <is>
-          <t>RZK080000</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="inlineStr">
-        <is>
-          <t>RP0060700</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="inlineStr">
-        <is>
-          <t>GST25A24-DA1-DIN CR</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>NNZ_DB_BOARDS</t>
         </is>
       </c>
     </row>
